--- a/VFFS Demo PLC/PLC1/Machine/Events/VFFS Demo.xlsx
+++ b/VFFS Demo PLC/PLC1/Machine/Events/VFFS Demo.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KeithBa\source\repos\BeckhoffUS\VFFS Demo\VFFS Demo PLC\VFFS Demo PLC\PLC1\Machine\Events\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EF0CAC-6E60-4E67-A2A0-CCF0B1715342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B0AA3C-9B89-40F1-8153-A37F0F04BE95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1080" windowWidth="24510" windowHeight="12225" xr2:uid="{486191D1-0D36-49DF-97C3-4593B96A7F54}"/>
+    <workbookView xWindow="-28920" yWindow="1155" windowWidth="29040" windowHeight="16440" xr2:uid="{486191D1-0D36-49DF-97C3-4593B96A7F54}"/>
   </bookViews>
   <sheets>
     <sheet name="Translations" sheetId="2" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="91">
   <si>
     <t>Key</t>
   </si>
@@ -274,6 +274,72 @@
   </si>
   <si>
     <t>{253CBB3E-FA4D-478D-8422-9E3E0A457FEC}</t>
+  </si>
+  <si>
+    <t>InfoMessage</t>
+  </si>
+  <si>
+    <t>WarnMessage</t>
+  </si>
+  <si>
+    <t>AlarmMessage</t>
+  </si>
+  <si>
+    <t>DT_VFFSDemo_Event_InfoMessage</t>
+  </si>
+  <si>
+    <t>DT_VFFSDemo_Event_WarnMessage</t>
+  </si>
+  <si>
+    <t>DT_VFFSDemo_Event_AlarmMessage</t>
+  </si>
+  <si>
+    <t>DT_PullWheels_Event_InfoMessage</t>
+  </si>
+  <si>
+    <t>DT_PullWheels_Event_WarnMessage</t>
+  </si>
+  <si>
+    <t>DT_PullWheels_Event_AlarmMessage</t>
+  </si>
+  <si>
+    <t>DT_Sealer_Event_InfoMessage</t>
+  </si>
+  <si>
+    <t>DT_Sealer_Event_WarnMessage</t>
+  </si>
+  <si>
+    <t>DT_Sealer_Event_AlarmMessage</t>
+  </si>
+  <si>
+    <t>DT_Unwind_Event_InfoMessage</t>
+  </si>
+  <si>
+    <t>DT_Unwind_Event_WarnMessage</t>
+  </si>
+  <si>
+    <t>DT_Unwind_Event_AlarmMessage</t>
+  </si>
+  <si>
+    <t>{0} - Info Message</t>
+  </si>
+  <si>
+    <t>{0} - Warning Message</t>
+  </si>
+  <si>
+    <t>{0} - Error Message</t>
+  </si>
+  <si>
+    <t>{5183A52A-113E-4097-88B2-113A388DD5DE}</t>
+  </si>
+  <si>
+    <t>{6B0100BE-3916-4BDE-A328-3F8C35350258}</t>
+  </si>
+  <si>
+    <t>{52AB4CCA-7290-4BB8-BAC6-EA0F9EFA8872}</t>
+  </si>
+  <si>
+    <t>{2D473CF4-5832-4FF1-91A5-58F2A44AB92F}</t>
   </si>
 </sst>
 </file>
@@ -297,7 +363,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -305,12 +371,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -329,8 +407,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF502067-F15D-4A43-90FE-FDFDE90CF1B0}" name="Translations" displayName="Translations" ref="A1:K8" totalsRowShown="0">
-  <autoFilter ref="A1:K8" xr:uid="{EF502067-F15D-4A43-90FE-FDFDE90CF1B0}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EF502067-F15D-4A43-90FE-FDFDE90CF1B0}" name="Translations" displayName="Translations" ref="A1:K20" totalsRowShown="0">
+  <autoFilter ref="A1:K20" xr:uid="{EF502067-F15D-4A43-90FE-FDFDE90CF1B0}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{7319F350-61F3-452C-8BDF-D51E96A73381}" name="Key"/>
     <tableColumn id="2" xr3:uid="{19CE2754-8E6F-4F8E-8CC7-46BC1F9E237B}" name="German (1031)"/>
@@ -375,8 +453,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3B193269-76F4-4443-88F6-9EAC3CB46573}" name="PullWheels" displayName="PullWheels" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3B193269-76F4-4443-88F6-9EAC3CB46573}" name="PullWheels" displayName="PullWheels" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{5A8AAB68-5995-46F7-86BC-5756553FBBF5}" name="Name"/>
     <tableColumn id="2" xr3:uid="{110F036D-194E-4830-B80C-9885B47F9559}" name="Id"/>
@@ -395,8 +473,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{63C0D1BE-C1F8-401A-A78B-3D30E6B015DD}" name="Sealer" displayName="Sealer" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{63C0D1BE-C1F8-401A-A78B-3D30E6B015DD}" name="Sealer" displayName="Sealer" ref="A1:K7" totalsRowShown="0">
+  <autoFilter ref="A1:K7" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{B396DBD9-B112-4B58-B803-1D432A62F2AA}" name="Name"/>
     <tableColumn id="2" xr3:uid="{F87502CB-2698-4D3A-9377-17ECC57FAA90}" name="Id"/>
@@ -415,8 +493,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9797DF74-73FB-474E-8091-2E5C44F4C370}" name="Unwind" displayName="Unwind" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{9797DF74-73FB-474E-8091-2E5C44F4C370}" name="Unwind" displayName="Unwind" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{72FB2860-DF50-4411-9C67-71A10C288EE6}" name="Name"/>
     <tableColumn id="2" xr3:uid="{2F17D521-36B9-484D-AAAE-E45BCE8C073A}" name="Id"/>
@@ -435,8 +513,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B5F34A5C-7472-4752-90C3-F46D2F5814E5}" name="VFFSDemo" displayName="VFFSDemo" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{B5F34A5C-7472-4752-90C3-F46D2F5814E5}" name="VFFSDemo" displayName="VFFSDemo" ref="A1:K7" totalsRowShown="0">
+  <autoFilter ref="A1:K7" xr:uid="{295623AA-431C-4A79-9E8B-4A379FC2A955}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{72D44325-D88D-45B7-8008-A553474E4A9D}" name="Name"/>
     <tableColumn id="2" xr3:uid="{032EEF6F-322C-4B68-9098-E9D30BDA3537}" name="Id"/>
@@ -475,8 +553,8 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E77A26EF-D29E-419D-9C54-6E4D7AD658E1}" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B7" totalsRowShown="0">
-  <autoFilter ref="A1:B7" xr:uid="{E77A26EF-D29E-419D-9C54-6E4D7AD658E1}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E77A26EF-D29E-419D-9C54-6E4D7AD658E1}" name="HiddenDataTypes" displayName="HiddenDataTypes" ref="A1:B11" totalsRowShown="0">
+  <autoFilter ref="A1:B11" xr:uid="{E77A26EF-D29E-419D-9C54-6E4D7AD658E1}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{D5FBD3FA-FE3E-4CDB-A75F-1FDE6E140252}" name="EventClass"/>
     <tableColumn id="2" xr3:uid="{D998B977-D4EE-4C7C-B174-CEA46AFC934D}" name="Guid"/>
@@ -792,13 +870,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C87B32-D677-4717-9AE6-4A3D84049267}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,6 +984,102 @@
         <v>65</v>
       </c>
     </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -941,10 +1115,10 @@
         <v>39</v>
       </c>
       <c r="B2">
-        <v>1692201073</v>
+        <v>430722343</v>
       </c>
       <c r="C2">
-        <v>1791199735</v>
+        <v>380818790</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -952,10 +1126,10 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>-77066965</v>
+        <v>362840094</v>
       </c>
       <c r="C3">
-        <v>738284537</v>
+        <v>1232472264</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -963,10 +1137,10 @@
         <v>43</v>
       </c>
       <c r="B4">
-        <v>-541802808</v>
+        <v>104680561</v>
       </c>
       <c r="C4">
-        <v>-714796886</v>
+        <v>-856980695</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -974,10 +1148,10 @@
         <v>37</v>
       </c>
       <c r="B5">
-        <v>-759472044</v>
+        <v>-1015308772</v>
       </c>
       <c r="C5">
-        <v>1299342382</v>
+        <v>-1701490323</v>
       </c>
     </row>
   </sheetData>
@@ -1027,7 +1201,7 @@
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>87</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1038,7 +1212,7 @@
         <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
         <v>41</v>
@@ -1049,7 +1223,7 @@
         <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D4" t="s">
         <v>43</v>
@@ -1060,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="D5" t="s">
         <v>37</v>
@@ -1076,13 +1250,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1216A82F-9D9B-4150-B078-9CBCA4839413}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:D2"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,6 +1340,51 @@
         <v>DT_PullWheels_Event_StartTimeout</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P2),LEN(CELL("filename",P2))-FIND("]",CELL("filename",P2))),"_Event_", PullWheels[[#This Row],[Name]])</f>
+        <v>DT_PullWheels_Event_InfoMessage</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", PullWheels[[#This Row],[Name]])</f>
+        <v>DT_PullWheels_Event_WarnMessage</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P4),LEN(CELL("filename",P4))-FIND("]",CELL("filename",P4))),"_Event_", PullWheels[[#This Row],[Name]])</f>
+        <v>DT_PullWheels_Event_AlarmMessage</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1178,7 +1397,7 @@
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C3</xm:sqref>
+          <xm:sqref>C1:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1188,13 +1407,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27486C79-9E01-4CD7-A8CE-CA964E678FB7}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,6 +1512,51 @@
         <v>DT_Sealer_Event_FeedbackError</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", Sealer[[#This Row],[Name]])</f>
+        <v>DT_Sealer_Event_InfoMessage</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P4),LEN(CELL("filename",P4))-FIND("]",CELL("filename",P4))),"_Event_", Sealer[[#This Row],[Name]])</f>
+        <v>DT_Sealer_Event_WarnMessage</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P5),LEN(CELL("filename",P5))-FIND("]",CELL("filename",P5))),"_Event_", Sealer[[#This Row],[Name]])</f>
+        <v>DT_Sealer_Event_AlarmMessage</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1305,7 +1569,7 @@
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C4</xm:sqref>
+          <xm:sqref>C1:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1315,13 +1579,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61771453-E0BB-40A1-AEBC-D5CF966FAC06}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D4" sqref="D4:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,8 +1669,56 @@
         <v>DT_Unwind_Event_StartTimeout</v>
       </c>
     </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="str" cm="1">
+        <f t="array" aca="1" ref="D4" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P2),LEN(CELL("filename",P2))-FIND("]",CELL("filename",P2))),"_Event_", Unwind[[#This Row],[Name]])</f>
+        <v>DT_Unwind_Event_InfoMessage</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", Unwind[[#This Row],[Name]])</f>
+        <v>DT_Unwind_Event_WarnMessage</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P4),LEN(CELL("filename",P4))-FIND("]",CELL("filename",P4))),"_Event_", Unwind[[#This Row],[Name]])</f>
+        <v>DT_Unwind_Event_AlarmMessage</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" s="1"/>
+    </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2" xr:uid="{37C44543-1BD6-4CB8-9FB9-26B4C6384176}">
       <formula1>" =Helper!$A$1:$A$6"</formula1>
     </dataValidation>
@@ -1417,12 +1729,12 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C87C7D96-2BF2-423D-B4B0-972FDDE20B3F}">
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1 C3</xm:sqref>
+          <xm:sqref>C1 C3:C6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1432,13 +1744,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CB41285-F25B-4DAA-9209-E457B9B850CF}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1849,51 @@
         <v>DT_VFFSDemo_Event_LowAir</v>
       </c>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="str" cm="1">
+        <f t="array" aca="1" ref="D5" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P3),LEN(CELL("filename",P3))-FIND("]",CELL("filename",P3))),"_Event_", VFFSDemo[[#This Row],[Name]])</f>
+        <v>DT_VFFSDemo_Event_InfoMessage</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="str" cm="1">
+        <f t="array" aca="1" ref="D6" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P4),LEN(CELL("filename",P4))-FIND("]",CELL("filename",P4))),"_Event_", VFFSDemo[[#This Row],[Name]])</f>
+        <v>DT_VFFSDemo_Event_WarnMessage</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="str" cm="1">
+        <f t="array" aca="1" ref="D7" ca="1">_xlfn.CONCAT("DT_", RIGHT(CELL("filename",P5),LEN(CELL("filename",P5))-FIND("]",CELL("filename",P5))),"_Event_", VFFSDemo[[#This Row],[Name]])</f>
+        <v>DT_VFFSDemo_Event_AlarmMessage</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -1549,7 +1906,7 @@
           <x14:formula1>
             <xm:f>Helper!$A$1:$A$6</xm:f>
           </x14:formula1>
-          <xm:sqref>C1:C4</xm:sqref>
+          <xm:sqref>C1:C7</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1686,7 +2043,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEB10EEA-54D7-4D7F-AA64-CDC0294BB65F}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1750,6 +2107,38 @@
       </c>
       <c r="B7" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
